--- a/src/main/resources/template/excel/export/storeChargeTotalExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeTotalExportTemplate.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -104,21 +104,20 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(E3:E3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${titleName}汇总查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(E3:E3:E3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -227,7 +226,7 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -239,74 +238,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -326,7 +257,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -361,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,7 +539,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -671,7 +602,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
